--- a/HS1/Home Assignment_Solved.xlsx
+++ b/HS1/Home Assignment_Solved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\Home Assignments\HS1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C1DD6-A2A5-4330-AB52-9B8D8A036C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC8DA25-0026-4A8B-82A6-EE4CB762BFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Assignment" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2151,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -3252,7 +3252,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -9560,8 +9560,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
